--- a/Datos/Base_EntrenamientoPBI.xlsx
+++ b/Datos/Base_EntrenamientoPBI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\PowerBI\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968BBCB3-B48D-47B7-81F5-B13A0EF4B109}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569D4403-ACF1-421C-A0CD-51416DAC8CC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{1BDC6D99-1541-4B26-B1BD-0C33354AAFC9}"/>
   </bookViews>
@@ -2431,9 +2431,6 @@
     <t>CUNDINAMARCA</t>
   </si>
   <si>
-    <t>GUAJIRA</t>
-  </si>
-  <si>
     <t>MAICAO</t>
   </si>
   <si>
@@ -2483,6 +2480,9 @@
   </si>
   <si>
     <t>Nintendo Switch</t>
+  </si>
+  <si>
+    <t>LA GUAJIRA</t>
   </si>
 </sst>
 </file>
@@ -2876,7 +2876,7 @@
         <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -3139,7 +3139,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C17" s="5">
         <v>15000</v>
@@ -3173,7 +3173,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C19" s="5">
         <v>16500</v>
@@ -70539,7 +70539,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70578,10 +70578,10 @@
         <v>791</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>809</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>810</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>775</v>
@@ -70718,10 +70718,10 @@
         <v>791</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>766</v>
@@ -70738,10 +70738,10 @@
         <v>791</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>775</v>
@@ -70758,10 +70758,10 @@
         <v>791</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>773</v>
@@ -70778,10 +70778,10 @@
         <v>791</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>766</v>
@@ -70798,10 +70798,10 @@
         <v>791</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>773</v>
@@ -70818,10 +70818,10 @@
         <v>791</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>763</v>
@@ -70938,10 +70938,10 @@
         <v>791</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>797</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>798</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>766</v>
@@ -70958,10 +70958,10 @@
         <v>791</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>775</v>
@@ -70978,10 +70978,10 @@
         <v>791</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>803</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>804</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>775</v>
@@ -70998,10 +70998,10 @@
         <v>791</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>801</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>802</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>763</v>
@@ -71018,7 +71018,7 @@
         <v>791</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>793</v>
@@ -71038,7 +71038,7 @@
         <v>791</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>793</v>
